--- a/S2/RF_Formula.xlsx
+++ b/S2/RF_Formula.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amatind-my.sharepoint.com/personal/sachin_dangayach_amat_com/Documents/Desktop/ERA1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amatind-my.sharepoint.com/personal/sachin_dangayach_amat_com/Documents/Desktop/ERA1/S2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{413C03F5-4D33-4848-A1CF-2F1A82654283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D9673D0-DE35-4FAB-BD08-560FADF04498}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{413C03F5-4D33-4848-A1CF-2F1A82654283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DE7C967-0165-4E24-A52B-9781F0F9155A}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="348" yWindow="348" windowWidth="11508" windowHeight="6468" xr2:uid="{55F2404E-2B28-4FA6-8A08-7AA3811C0114}"/>
+    <workbookView xWindow="13260" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{55F2404E-2B28-4FA6-8A08-7AA3811C0114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>N_in</t>
   </si>
@@ -186,6 +188,55 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A93B80-3AD0-08C0-8BDF-AF7ED73D37C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7871460" y="331470"/>
+          <a:ext cx="6328791" cy="2591654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114681</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FA5839-6924-4ED5-8AED-75684C20CC6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -513,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7320871-FDE4-4579-9D19-39E075335C8F}">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -596,7 +647,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:I19" si="0">H3</f>
+        <f t="shared" ref="C4:F19" si="0">H3</f>
         <v>3</v>
       </c>
       <c r="D4" s="1">
@@ -1673,4 +1724,1216 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC7D8C0-D002-4594-B888-152E76E4F8B0}">
+  <dimension ref="A2:S30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f>((B3+2*F3-L3)/E3)+1</f>
+        <v>26</v>
+      </c>
+      <c r="H3" s="1">
+        <f>C3+(L3-1)*D3</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <f>D3*E3</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <f>G3</f>
+        <v>26</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:F19" si="0">H3</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:G30" si="1">((B4+2*F4-L4)/E4)+1</f>
+        <v>24</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H30" si="2">C4+(L4-1)*D4</f>
+        <v>5</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I30" si="3">D4*E4</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:D30" si="4">G4</f>
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="L6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="L10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>-6</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>-8</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="L14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="L15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="4"/>
+        <v>-10</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="4"/>
+        <v>-12</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>-14</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="L17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="4"/>
+        <v>-14</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="L18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="4"/>
+        <v>-16</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="L19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="4"/>
+        <v>-18</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" ref="F20:F30" si="5">K19</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="4"/>
+        <v>-20</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>-22</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <f>64*256</f>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="4"/>
+        <v>-22</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>-24</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <f>320*50</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="4"/>
+        <v>-24</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>-26</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <f xml:space="preserve"> 8*8*256*128</f>
+        <v>2097152</v>
+      </c>
+      <c r="S23">
+        <f>R23/256</f>
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="4"/>
+        <v>-26</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="4"/>
+        <v>136</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>-28</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <f>4*4*256</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="4"/>
+        <v>-28</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>-30</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="L25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="4"/>
+        <v>-30</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>-32</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="L26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="4"/>
+        <v>-32</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>-34</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="L27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <f t="shared" si="4"/>
+        <v>-34</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="1"/>
+        <v>-36</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="L28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" si="4"/>
+        <v>-36</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>-38</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="L29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" si="4"/>
+        <v>-38</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="1"/>
+        <v>-40</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="L30">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153ADDA0-4289-4DB8-BBAC-0B0F26E238A8}">
+  <dimension ref="F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="6" max="6" width="9.68359375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="6:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4">
+        <f>7*7*512*4096+4096*4096+4096*1000</f>
+        <v>123633664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>